--- a/va_facility_data_2025-02-20/Tuscaloosa VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Tuscaloosa%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Tuscaloosa VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Tuscaloosa%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R311c8c36b768440fbcc101fdb43db4d1"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R0dbe9c86226847d5b1aa2bb1ed8eb40b"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R609cae37104f47649a8011e043d6cb74"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rad8f587c6acf460ea715d97d03288cec"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Re9ef45594754444086ba30c6cbdfc6fc"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rd657911131404cbf89273a74a486df71"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R3f9faacfeb99403f9163740b8bdbef4c"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R0f1401ea2ea74a42b2d98e472deb2d9c"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rbeb29fdeb508498c881192bc38c4e9f2"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R31fba7d8ffae48a68b7e5dc7e3b19b4f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R5307cbe3eafb4d2e937a0454058cf1bf"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rd5b055dc6a7044d5b2361f3fefae010f"/>
   </x:sheets>
 </x:workbook>
 </file>
